--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3923638059380591</v>
+        <v>0.3914889628580938</v>
       </c>
       <c r="C11" t="n">
-        <v>1.429120241051872</v>
+        <v>1.384621596159637</v>
       </c>
       <c r="D11" t="n">
-        <v>2.112937918344957</v>
+        <v>2.261858027595442</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5971334794075626</v>
+        <v>0.5935458692505979</v>
       </c>
       <c r="C11" t="n">
-        <v>1.900638159565861</v>
+        <v>1.911011761060087</v>
       </c>
       <c r="D11" t="n">
-        <v>3.551321213051559</v>
+        <v>3.378824378985042</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.772391255888626</v>
+        <v>13.74334425592984</v>
       </c>
       <c r="C2" t="n">
-        <v>22.36931242770763</v>
+        <v>33.33482930760653</v>
       </c>
       <c r="D2" t="n">
-        <v>27.41791021666683</v>
+        <v>45.02891368325734</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.77848353509201</v>
+        <v>19.32416581232783</v>
       </c>
       <c r="C3" t="n">
-        <v>36.70827021325982</v>
+        <v>48.4142300102199</v>
       </c>
       <c r="D3" t="n">
-        <v>48.59709136749263</v>
+        <v>65.84775976692335</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.940615512840442</v>
+        <v>13.19738055662379</v>
       </c>
       <c r="C4" t="n">
-        <v>23.01820529245481</v>
+        <v>32.10366414378912</v>
       </c>
       <c r="D4" t="n">
-        <v>28.11517138017599</v>
+        <v>43.46272642278728</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.341356951009445</v>
+        <v>16.18464227331337</v>
       </c>
       <c r="C5" t="n">
-        <v>24.96473096478078</v>
+        <v>40.26544195184453</v>
       </c>
       <c r="D5" t="n">
-        <v>29.97644591360167</v>
+        <v>52.65935544097009</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.302247580158923</v>
+        <v>14.30119484426782</v>
       </c>
       <c r="C6" t="n">
-        <v>24.84222853629901</v>
+        <v>37.5610820959863</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3945150793306</v>
+        <v>48.02982716100924</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.893206737709257</v>
+        <v>13.3903846057513</v>
       </c>
       <c r="C7" t="n">
-        <v>26.75615433899701</v>
+        <v>39.59114490865051</v>
       </c>
       <c r="D7" t="n">
-        <v>34.84288686068469</v>
+        <v>54.62599152661179</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.78246430124801</v>
+        <v>19.25139901770615</v>
       </c>
       <c r="C8" t="n">
-        <v>36.70538253190188</v>
+        <v>48.26492800393566</v>
       </c>
       <c r="D8" t="n">
-        <v>48.71340814583257</v>
+        <v>65.53154599728768</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.81962656878344</v>
+        <v>19.35881639141746</v>
       </c>
       <c r="C9" t="n">
-        <v>36.82691467660668</v>
+        <v>48.54076882643754</v>
       </c>
       <c r="D9" t="n">
-        <v>48.64830395404758</v>
+        <v>65.92369511031636</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.94700036680171</v>
+        <v>21.32896393200338</v>
       </c>
       <c r="C10" t="n">
-        <v>95.20562783332844</v>
+        <v>86.99131823110864</v>
       </c>
       <c r="D10" t="n">
-        <v>95.44625437711117</v>
+        <v>87.12122333964061</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5935458692505979</v>
+        <v>1.097199386661247</v>
       </c>
       <c r="C11" t="n">
-        <v>1.911011761060087</v>
+        <v>1.28932329955426</v>
       </c>
       <c r="D11" t="n">
-        <v>3.378824378985042</v>
+        <v>4.826088033302794</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0736737004305965</v>
+        <v>0.05081476679582837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2604954418810924</v>
+        <v>0.153602117841894</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3795346268310659</v>
+        <v>0.2149707002005856</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7532246611659636</v>
+        <v>1.465015025351278</v>
       </c>
       <c r="C13" t="n">
-        <v>2.414093673762278</v>
+        <v>1.467402751058139</v>
       </c>
       <c r="D13" t="n">
-        <v>4.915832179522619</v>
+        <v>6.906554810420866</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros teste.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.74334425592984</v>
+        <v>13.69336307271986</v>
       </c>
       <c r="C2" t="n">
-        <v>33.33482930760653</v>
+        <v>40.43522637663727</v>
       </c>
       <c r="D2" t="n">
-        <v>45.02891368325734</v>
+        <v>49.55758763155239</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.32416581232783</v>
+        <v>19.47140514780051</v>
       </c>
       <c r="C3" t="n">
-        <v>48.4142300102199</v>
+        <v>61.37602000957902</v>
       </c>
       <c r="D3" t="n">
-        <v>65.84775976692335</v>
+        <v>77.67355776655337</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.19738055662379</v>
+        <v>13.75388807673503</v>
       </c>
       <c r="C4" t="n">
-        <v>32.10366414378912</v>
+        <v>40.64498172661075</v>
       </c>
       <c r="D4" t="n">
-        <v>43.46272642278728</v>
+        <v>49.81945010892346</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.18464227331337</v>
+        <v>14.00579707234982</v>
       </c>
       <c r="C5" t="n">
-        <v>40.26544195184453</v>
+        <v>43.03275132281927</v>
       </c>
       <c r="D5" t="n">
-        <v>52.65935544097009</v>
+        <v>52.53825449998152</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.30119484426782</v>
+        <v>14.13086179921626</v>
       </c>
       <c r="C6" t="n">
-        <v>37.5610820959863</v>
+        <v>42.93717306453021</v>
       </c>
       <c r="D6" t="n">
-        <v>48.02982716100924</v>
+        <v>53.07189542629631</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.3903846057513</v>
+        <v>14.8471904132421</v>
       </c>
       <c r="C7" t="n">
-        <v>39.59114490865051</v>
+        <v>44.20849020835502</v>
       </c>
       <c r="D7" t="n">
-        <v>54.62599152661179</v>
+        <v>56.08241243869185</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.25139901770615</v>
+        <v>19.5941929506683</v>
       </c>
       <c r="C8" t="n">
-        <v>48.26492800393566</v>
+        <v>61.73322677091919</v>
       </c>
       <c r="D8" t="n">
-        <v>65.53154599728768</v>
+        <v>77.99523625342876</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.35881639141746</v>
+        <v>19.62540785522773</v>
       </c>
       <c r="C9" t="n">
-        <v>48.54076882643754</v>
+        <v>61.68778414383264</v>
       </c>
       <c r="D9" t="n">
-        <v>65.92369511031636</v>
+        <v>77.51420025362921</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.32896393200338</v>
+        <v>21.28171640456259</v>
       </c>
       <c r="C10" t="n">
-        <v>86.99131823110864</v>
+        <v>89.33607189905639</v>
       </c>
       <c r="D10" t="n">
-        <v>87.12122333964061</v>
+        <v>90.05218625846663</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.097199386661247</v>
+        <v>0.9233635729859866</v>
       </c>
       <c r="C11" t="n">
-        <v>1.28932329955426</v>
+        <v>2.555427794302954</v>
       </c>
       <c r="D11" t="n">
-        <v>4.826088033302794</v>
+        <v>6.326963019027882</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05081476679582837</v>
+        <v>0.1240795501294861</v>
       </c>
       <c r="C12" t="n">
-        <v>0.153602117841894</v>
+        <v>0.3986040525364153</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2149707002005856</v>
+        <v>0.5882946845226356</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.465015025351278</v>
+        <v>1.309678595666027</v>
       </c>
       <c r="C13" t="n">
-        <v>1.467402751058139</v>
+        <v>3.634994570787251</v>
       </c>
       <c r="D13" t="n">
-        <v>6.906554810420866</v>
+        <v>12.52271279225876</v>
       </c>
     </row>
   </sheetData>
